--- a/info/metricas/NN/TANH/NN6.xlsx
+++ b/info/metricas/NN/TANH/NN6.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J11"/>
+  <dimension ref="A1:L11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,34 +436,34 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>R2</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>MSE</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>MeanAE</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>MedianAE</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>RMSE</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
           <t>MaxError</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>MSE</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>MeanAE</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>RMSE</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>MedianAE</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>R2</t>
-        </is>
-      </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
           <t>varianzaExplicada</t>
@@ -471,10 +471,20 @@
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
+          <t>MAPE</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>SMAPE</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
           <t>Iteracion</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Tecnica</t>
         </is>
@@ -485,34 +495,40 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1895.355346679688</v>
+        <v>0.80776747917339</v>
       </c>
       <c r="C2" t="n">
-        <v>73169.25266079399</v>
+        <v>71481.89259763728</v>
       </c>
       <c r="D2" t="n">
-        <v>182.3063284990864</v>
+        <v>181.7378896851018</v>
       </c>
       <c r="E2" t="n">
-        <v>926845.3740893553</v>
+        <v>109.6728317260742</v>
       </c>
       <c r="F2" t="n">
-        <v>113.1535968017578</v>
+        <v>923955.4311590577</v>
       </c>
       <c r="G2" t="n">
-        <v>0.8056479437549151</v>
+        <v>1888.543701171875</v>
       </c>
       <c r="H2" t="n">
-        <v>0.8059440022454238</v>
-      </c>
-      <c r="I2" t="inlineStr">
+        <v>0.8078799036291715</v>
+      </c>
+      <c r="I2" t="n">
+        <v>6.147116505895303e+16</v>
+      </c>
+      <c r="J2" t="n">
+        <v>-79940.1737197843</v>
+      </c>
+      <c r="K2" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>TANH</t>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>TANH6</t>
         </is>
       </c>
     </row>
@@ -521,34 +537,40 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>1899.453491210938</v>
+        <v>0.783332361367264</v>
       </c>
       <c r="C3" t="n">
-        <v>81388.95262834118</v>
+        <v>76203.3098418757</v>
       </c>
       <c r="D3" t="n">
-        <v>185.1300217836922</v>
+        <v>182.0976801407497</v>
       </c>
       <c r="E3" t="n">
-        <v>941201.0307482911</v>
+        <v>108.7176779174805</v>
       </c>
       <c r="F3" t="n">
-        <v>106.3301300048828</v>
+        <v>925784.6058355713</v>
       </c>
       <c r="G3" t="n">
-        <v>0.7835756379442019</v>
+        <v>1894.84765625</v>
       </c>
       <c r="H3" t="n">
-        <v>0.7841525617406295</v>
-      </c>
-      <c r="I3" t="inlineStr">
+        <v>0.7834583648282568</v>
+      </c>
+      <c r="I3" t="n">
+        <v>7.991216967353106e+16</v>
+      </c>
+      <c r="J3" t="n">
+        <v>-81594.47358115444</v>
+      </c>
+      <c r="K3" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>TANH</t>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>TANH6</t>
         </is>
       </c>
     </row>
@@ -557,34 +579,40 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>1840.88525390625</v>
+        <v>0.7880524042831247</v>
       </c>
       <c r="C4" t="n">
-        <v>76202.07390498872</v>
+        <v>75929.15232384382</v>
       </c>
       <c r="D4" t="n">
-        <v>184.7185922234008</v>
+        <v>179.5058539544682</v>
       </c>
       <c r="E4" t="n">
-        <v>939109.3228637695</v>
+        <v>104.4952862548828</v>
       </c>
       <c r="F4" t="n">
-        <v>112.7201538085938</v>
+        <v>912607.7615045165</v>
       </c>
       <c r="G4" t="n">
-        <v>0.800892510063019</v>
+        <v>1894.456298828125</v>
       </c>
       <c r="H4" t="n">
-        <v>0.8009080321423396</v>
-      </c>
-      <c r="I4" t="inlineStr">
+        <v>0.7881043279339356</v>
+      </c>
+      <c r="I4" t="n">
+        <v>8.150495447675302e+16</v>
+      </c>
+      <c r="J4" t="n">
+        <v>-97496.76335219671</v>
+      </c>
+      <c r="K4" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>TANH</t>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>TANH6</t>
         </is>
       </c>
     </row>
@@ -593,34 +621,40 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>1890.60498046875</v>
+        <v>0.813925319669242</v>
       </c>
       <c r="C5" t="n">
-        <v>76738.48307602503</v>
+        <v>73372.20851974325</v>
       </c>
       <c r="D5" t="n">
-        <v>182.843199272606</v>
+        <v>183.3641788258766</v>
       </c>
       <c r="E5" t="n">
-        <v>929574.8251019288</v>
+        <v>115.5274505615234</v>
       </c>
       <c r="F5" t="n">
-        <v>107.9854992675781</v>
+        <v>932223.4851507568</v>
       </c>
       <c r="G5" t="n">
-        <v>0.8031908632664057</v>
+        <v>1890.619873046875</v>
       </c>
       <c r="H5" t="n">
-        <v>0.803198128804601</v>
-      </c>
-      <c r="I5" t="inlineStr">
+        <v>0.8139314195157487</v>
+      </c>
+      <c r="I5" t="n">
+        <v>7.43876255961857e+16</v>
+      </c>
+      <c r="J5" t="n">
+        <v>-118233.622723254</v>
+      </c>
+      <c r="K5" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>TANH</t>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>TANH6</t>
         </is>
       </c>
     </row>
@@ -629,34 +663,40 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>1876.610107421875</v>
+        <v>0.7998021988669131</v>
       </c>
       <c r="C6" t="n">
-        <v>71768.88794687427</v>
+        <v>73503.03751870491</v>
       </c>
       <c r="D6" t="n">
-        <v>178.1500026433758</v>
+        <v>179.7334863121547</v>
       </c>
       <c r="E6" t="n">
-        <v>905536.4634362793</v>
+        <v>107.9641613769531</v>
       </c>
       <c r="F6" t="n">
-        <v>105.8067779541016</v>
+        <v>913585.3109246825</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8092706338224203</v>
+        <v>1887.948364257812</v>
       </c>
       <c r="H6" t="n">
-        <v>0.8093550749075229</v>
-      </c>
-      <c r="I6" t="inlineStr">
+        <v>0.7998064100424064</v>
+      </c>
+      <c r="I6" t="n">
+        <v>7.297800751344334e+16</v>
+      </c>
+      <c r="J6" t="n">
+        <v>-53296.4492649681</v>
+      </c>
+      <c r="K6" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="J6" t="inlineStr">
-        <is>
-          <t>TANH</t>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>TANH6</t>
         </is>
       </c>
     </row>
@@ -665,34 +705,40 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>1886.200073242188</v>
+        <v>0.7984815389530766</v>
       </c>
       <c r="C7" t="n">
-        <v>79127.99519387561</v>
+        <v>75183.44598158941</v>
       </c>
       <c r="D7" t="n">
-        <v>185.537378610044</v>
+        <v>183.1093181531307</v>
       </c>
       <c r="E7" t="n">
-        <v>943086.4954748536</v>
+        <v>111.2808410644531</v>
       </c>
       <c r="F7" t="n">
-        <v>108.7641357421876</v>
+        <v>930744.6641723632</v>
       </c>
       <c r="G7" t="n">
-        <v>0.7954073721139817</v>
+        <v>1888.9541015625</v>
       </c>
       <c r="H7" t="n">
-        <v>0.7962070077887203</v>
-      </c>
-      <c r="I7" t="inlineStr">
+        <v>0.7986608672396144</v>
+      </c>
+      <c r="I7" t="n">
+        <v>7.259315028266136e+16</v>
+      </c>
+      <c r="J7" t="n">
+        <v>-95060.14122205022</v>
+      </c>
+      <c r="K7" t="inlineStr">
         <is>
           <t>6</t>
         </is>
       </c>
-      <c r="J7" t="inlineStr">
-        <is>
-          <t>TANH</t>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>TANH6</t>
         </is>
       </c>
     </row>
@@ -701,34 +747,40 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>1884.802978515625</v>
+        <v>0.8019087173003785</v>
       </c>
       <c r="C8" t="n">
-        <v>69453.14413866107</v>
+        <v>75182.32079616073</v>
       </c>
       <c r="D8" t="n">
-        <v>175.4560858448486</v>
+        <v>179.356909683891</v>
       </c>
       <c r="E8" t="n">
-        <v>891843.2843493652</v>
+        <v>103.81373046875</v>
       </c>
       <c r="F8" t="n">
-        <v>102.504345703125</v>
+        <v>911671.1719232177</v>
       </c>
       <c r="G8" t="n">
-        <v>0.7983930652054483</v>
+        <v>1894.219360351562</v>
       </c>
       <c r="H8" t="n">
-        <v>0.7986100907555294</v>
-      </c>
-      <c r="I8" t="inlineStr">
+        <v>0.801923389179843</v>
+      </c>
+      <c r="I8" t="n">
+        <v>7.836005297078434e+16</v>
+      </c>
+      <c r="J8" t="n">
+        <v>-62285.99345802033</v>
+      </c>
+      <c r="K8" t="inlineStr">
         <is>
           <t>7</t>
         </is>
       </c>
-      <c r="J8" t="inlineStr">
-        <is>
-          <t>TANH</t>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>TANH6</t>
         </is>
       </c>
     </row>
@@ -737,34 +789,40 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>1892.773071289062</v>
+        <v>0.8119484065961811</v>
       </c>
       <c r="C9" t="n">
-        <v>74593.51504877589</v>
+        <v>70978.41612453511</v>
       </c>
       <c r="D9" t="n">
-        <v>181.9285348310814</v>
+        <v>179.7106696598909</v>
       </c>
       <c r="E9" t="n">
-        <v>924742.7425463867</v>
+        <v>109.4753515625</v>
       </c>
       <c r="F9" t="n">
-        <v>107.8038226318359</v>
+        <v>913469.3338812256</v>
       </c>
       <c r="G9" t="n">
-        <v>0.7889055652852577</v>
+        <v>1887.364135742188</v>
       </c>
       <c r="H9" t="n">
-        <v>0.7891821422756043</v>
-      </c>
-      <c r="I9" t="inlineStr">
+        <v>0.811960112998623</v>
+      </c>
+      <c r="I9" t="n">
+        <v>7.855648808849491e+16</v>
+      </c>
+      <c r="J9" t="n">
+        <v>-67615.21338108522</v>
+      </c>
+      <c r="K9" t="inlineStr">
         <is>
           <t>8</t>
         </is>
       </c>
-      <c r="J9" t="inlineStr">
-        <is>
-          <t>TANH</t>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>TANH6</t>
         </is>
       </c>
     </row>
@@ -773,34 +831,40 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>1896.815063476562</v>
+        <v>0.7861976800235371</v>
       </c>
       <c r="C10" t="n">
-        <v>75469.77559911906</v>
+        <v>80915.00342062206</v>
       </c>
       <c r="D10" t="n">
-        <v>184.0037668014187</v>
+        <v>187.93571852548</v>
       </c>
       <c r="E10" t="n">
-        <v>935291.1466516112</v>
+        <v>108.0035308837891</v>
       </c>
       <c r="F10" t="n">
-        <v>109.6906225585938</v>
+        <v>955277.2572650147</v>
       </c>
       <c r="G10" t="n">
-        <v>0.794394624865324</v>
+        <v>1887.587768554688</v>
       </c>
       <c r="H10" t="n">
-        <v>0.795190156936066</v>
-      </c>
-      <c r="I10" t="inlineStr">
+        <v>0.7861991103286992</v>
+      </c>
+      <c r="I10" t="n">
+        <v>8.840336526224269e+16</v>
+      </c>
+      <c r="J10" t="n">
+        <v>-89316.46660595224</v>
+      </c>
+      <c r="K10" t="inlineStr">
         <is>
           <t>9</t>
         </is>
       </c>
-      <c r="J10" t="inlineStr">
-        <is>
-          <t>TANH</t>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>TANH6</t>
         </is>
       </c>
     </row>
@@ -809,34 +873,40 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>1878.0087890625</v>
+        <v>0.7943888627428357</v>
       </c>
       <c r="C11" t="n">
-        <v>71928.62479930335</v>
+        <v>75166.92299708264</v>
       </c>
       <c r="D11" t="n">
-        <v>180.3012253831274</v>
+        <v>180.1178113023517</v>
       </c>
       <c r="E11" t="n">
-        <v>916471.1286224365</v>
+        <v>106.3661230468749</v>
       </c>
       <c r="F11" t="n">
-        <v>109.6771881103516</v>
+        <v>915538.8348498535</v>
       </c>
       <c r="G11" t="n">
-        <v>0.8022530607153238</v>
+        <v>1887.186279296875</v>
       </c>
       <c r="H11" t="n">
-        <v>0.8024058046696244</v>
-      </c>
-      <c r="I11" t="inlineStr">
+        <v>0.795157018706903</v>
+      </c>
+      <c r="I11" t="n">
+        <v>7.271263192970566e+16</v>
+      </c>
+      <c r="J11" t="n">
+        <v>-57971.02741049077</v>
+      </c>
+      <c r="K11" t="inlineStr">
         <is>
           <t>10</t>
         </is>
       </c>
-      <c r="J11" t="inlineStr">
-        <is>
-          <t>TANH</t>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>TANH6</t>
         </is>
       </c>
     </row>
